--- a/config_3.16/activity_exchange_server.xlsx
+++ b/config_3.16/activity_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="388">
   <si>
     <t>id|</t>
   </si>
@@ -1412,10 +1412,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_web_chip_huafei",</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>800,800,0,800,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1791,6 +1787,83 @@
       </rPr>
       <t>d</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换奖励--cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《鲸鱼初纪元》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>恭喜您在兑换奖励活动中获得了%s，请在活动结束后7个工作日内联系公众号《彩云新世界》客服领取，逾期视为自动放弃！</t>
+  </si>
+  <si>
+    <t>春暖花开</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空调</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为荣耀手机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>880000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>180000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei,</t>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_tiny_game_coin",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_hammer_3",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2361,8 +2434,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3521,7 +3594,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C37" s="7">
         <v>1613433600</v>
@@ -3552,7 +3625,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38" s="7">
         <v>1613433600</v>
@@ -3583,7 +3656,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C39" s="7">
         <v>1613433600</v>
@@ -3614,7 +3687,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C40" s="7">
         <v>1614038400</v>
@@ -3625,7 +3698,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H40" s="23">
         <v>1</v>
@@ -3645,7 +3718,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C41" s="7">
         <v>1614038400</v>
@@ -3656,7 +3729,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H41" s="23">
         <v>1</v>
@@ -3676,7 +3749,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" s="7">
         <v>1614643200</v>
@@ -3687,7 +3760,7 @@
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H42" s="23">
         <v>1</v>
@@ -3707,7 +3780,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="7">
         <v>1614643200</v>
@@ -3718,7 +3791,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H43" s="23">
         <v>1</v>
@@ -3738,7 +3811,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C44" s="7">
         <v>1615248000</v>
@@ -3749,7 +3822,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H44" s="23">
         <v>1</v>
@@ -3767,7 +3840,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C45" s="7">
         <v>1615248000</v>
@@ -3778,7 +3851,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H45" s="23">
         <v>1</v>
@@ -3791,89 +3864,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="37" customFormat="1">
-      <c r="A46" s="32">
+    <row r="46" spans="1:16" s="16" customFormat="1">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1615248000</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1615823999</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" s="23">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7">
+        <v>31</v>
+      </c>
+      <c r="J46" s="14">
+        <v>45</v>
+      </c>
+      <c r="K46" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="16" customFormat="1">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C47" s="7">
         <v>1615248000</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D47" s="7">
         <v>1615823999</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="34" t="s">
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="35">
-        <v>1</v>
-      </c>
-      <c r="I46" s="32">
-        <v>31</v>
-      </c>
-      <c r="J46" s="36">
-        <v>45</v>
-      </c>
-      <c r="K46" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="37" customFormat="1">
-      <c r="A47" s="32">
+      <c r="H47" s="23">
+        <v>1</v>
+      </c>
+      <c r="I47" s="7">
+        <v>32</v>
+      </c>
+      <c r="J47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="C47" s="32">
-        <v>1615248000</v>
-      </c>
-      <c r="D47" s="32">
-        <v>1615823999</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="34" t="s">
+      <c r="K47" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="37" customFormat="1">
+      <c r="A48" s="32">
+        <v>47</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C48" s="32">
+        <v>1615852800</v>
+      </c>
+      <c r="D48" s="32">
+        <v>1616428799</v>
+      </c>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="35">
-        <v>1</v>
-      </c>
-      <c r="I47" s="32">
-        <v>32</v>
-      </c>
-      <c r="J47" s="36">
-        <v>46</v>
-      </c>
-      <c r="K47" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="16" customFormat="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="14"/>
-    </row>
-    <row r="49" spans="1:10" s="16" customFormat="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="14"/>
-    </row>
-    <row r="50" spans="1:10" s="16" customFormat="1">
+      <c r="H48" s="35">
+        <v>1</v>
+      </c>
+      <c r="I48" s="32">
+        <v>33</v>
+      </c>
+      <c r="J48" s="36">
+        <v>47</v>
+      </c>
+      <c r="K48" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="37" customFormat="1">
+      <c r="A49" s="32">
+        <v>48</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C49" s="32">
+        <v>1615852800</v>
+      </c>
+      <c r="D49" s="32">
+        <v>1616428799</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H49" s="35">
+        <v>1</v>
+      </c>
+      <c r="I49" s="32">
+        <v>34</v>
+      </c>
+      <c r="J49" s="36">
+        <v>48</v>
+      </c>
+      <c r="K49" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="16" customFormat="1">
       <c r="A50" s="7"/>
       <c r="B50" s="30"/>
       <c r="C50" s="7"/>
@@ -3894,10 +4009,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4231,10 +4346,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>296</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1">
@@ -4242,10 +4357,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="7" customFormat="1">
@@ -4253,10 +4368,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="7" customFormat="1">
@@ -4264,32 +4379,54 @@
         <v>30</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" s="32" customFormat="1">
-      <c r="A32" s="32">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="7" customFormat="1">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="7" customFormat="1">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C33" s="15" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="32" customFormat="1">
-      <c r="A33" s="32">
-        <v>32</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>340</v>
+    <row r="34" spans="1:3" s="32" customFormat="1">
+      <c r="A34" s="32">
+        <v>33</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="32" customFormat="1">
+      <c r="A35" s="32">
+        <v>34</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4302,13 +4439,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:M285"/>
+  <dimension ref="A1:M295"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B197" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E269" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G212" sqref="G212"/>
+      <selection pane="bottomRight" activeCell="K295" sqref="K295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4334,7 +4471,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>34</v>
@@ -9425,7 +9562,7 @@
         <v>102</v>
       </c>
       <c r="H198" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:10" s="7" customFormat="1" ht="16.5">
@@ -9503,7 +9640,7 @@
         <v>55</v>
       </c>
       <c r="H201" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J201" s="7">
         <v>1</v>
@@ -9530,7 +9667,7 @@
         <v>174</v>
       </c>
       <c r="H202" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J202" s="7">
         <v>1</v>
@@ -9601,7 +9738,7 @@
       </c>
       <c r="E205" s="19"/>
       <c r="F205" s="31" t="s">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c r="G205" s="20" t="s">
         <v>278</v>
@@ -9634,7 +9771,7 @@
         <v>102</v>
       </c>
       <c r="H206" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="207" spans="1:10" s="7" customFormat="1">
@@ -9712,7 +9849,7 @@
         <v>55</v>
       </c>
       <c r="H209" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J209" s="7">
         <v>1</v>
@@ -9739,7 +9876,7 @@
         <v>213</v>
       </c>
       <c r="H210" s="20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J210" s="7">
         <v>1</v>
@@ -9756,7 +9893,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E211" s="19"/>
       <c r="F211" s="20" t="s">
@@ -9766,7 +9903,7 @@
         <v>223</v>
       </c>
       <c r="H211" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J211" s="7">
         <v>9999</v>
@@ -9783,7 +9920,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E212" s="19"/>
       <c r="F212" s="20" t="s">
@@ -9793,7 +9930,7 @@
         <v>224</v>
       </c>
       <c r="H212" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J212" s="7">
         <v>9999</v>
@@ -9810,7 +9947,7 @@
         <v>3</v>
       </c>
       <c r="D213" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E213" s="19"/>
       <c r="F213" s="20" t="s">
@@ -9820,7 +9957,7 @@
         <v>241</v>
       </c>
       <c r="H213" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J213" s="7">
         <v>9999</v>
@@ -9837,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E214" s="19"/>
       <c r="F214" s="20" t="s">
@@ -9847,7 +9984,7 @@
         <v>224</v>
       </c>
       <c r="H214" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J214" s="7">
         <v>9999</v>
@@ -9864,7 +10001,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E215" s="19"/>
       <c r="F215" s="20" t="s">
@@ -9874,7 +10011,7 @@
         <v>37</v>
       </c>
       <c r="H215" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J215" s="7">
         <v>9999</v>
@@ -9891,7 +10028,7 @@
         <v>3</v>
       </c>
       <c r="D216" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E216" s="19"/>
       <c r="F216" s="20" t="s">
@@ -9901,7 +10038,7 @@
         <v>242</v>
       </c>
       <c r="H216" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J216" s="7">
         <v>9999</v>
@@ -9918,14 +10055,14 @@
         <v>1</v>
       </c>
       <c r="D217" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E217" s="19"/>
       <c r="F217" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G217" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H217" s="19" t="s">
         <v>229</v>
@@ -9945,14 +10082,14 @@
         <v>2</v>
       </c>
       <c r="D218" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E218" s="19"/>
       <c r="F218" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G218" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H218" s="19" t="s">
         <v>229</v>
@@ -9972,7 +10109,7 @@
         <v>3</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E219" s="19"/>
       <c r="F219" s="20" t="s">
@@ -10002,7 +10139,7 @@
         <v>130</v>
       </c>
       <c r="E220" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F220" s="20"/>
       <c r="G220" s="20"/>
@@ -10027,7 +10164,7 @@
         <v>130</v>
       </c>
       <c r="E221" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F221" s="20"/>
       <c r="G221" s="20"/>
@@ -10052,7 +10189,7 @@
         <v>130</v>
       </c>
       <c r="E222" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G222" s="20"/>
       <c r="H222" s="20" t="s">
@@ -10208,7 +10345,7 @@
         <v>131</v>
       </c>
       <c r="E228" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F228" s="20"/>
       <c r="G228" s="20"/>
@@ -10233,7 +10370,7 @@
         <v>131</v>
       </c>
       <c r="E229" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F229" s="20"/>
       <c r="G229" s="20"/>
@@ -10258,7 +10395,7 @@
         <v>131</v>
       </c>
       <c r="E230" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F230" s="20"/>
       <c r="G230" s="20"/>
@@ -10415,7 +10552,7 @@
         <v>130</v>
       </c>
       <c r="E236" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F236" s="20"/>
       <c r="G236" s="20"/>
@@ -10440,7 +10577,7 @@
         <v>130</v>
       </c>
       <c r="E237" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F237" s="20"/>
       <c r="G237" s="20"/>
@@ -10465,7 +10602,7 @@
         <v>130</v>
       </c>
       <c r="E238" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G238" s="20"/>
       <c r="H238" s="20" t="s">
@@ -10591,7 +10728,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E243" s="19"/>
       <c r="F243" s="22" t="s">
@@ -10618,10 +10755,10 @@
         <v>1</v>
       </c>
       <c r="D244" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E244" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F244" s="20"/>
       <c r="G244" s="20"/>
@@ -10643,10 +10780,10 @@
         <v>2</v>
       </c>
       <c r="D245" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E245" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F245" s="20"/>
       <c r="G245" s="20"/>
@@ -10671,7 +10808,7 @@
         <v>131</v>
       </c>
       <c r="E246" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F246" s="20"/>
       <c r="G246" s="20"/>
@@ -10825,16 +10962,16 @@
         <v>1</v>
       </c>
       <c r="D252" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F252" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G252" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H252" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="253" spans="1:10" s="42" customFormat="1">
@@ -10848,16 +10985,16 @@
         <v>2</v>
       </c>
       <c r="D253" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F253" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G253" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="H253" s="43" t="s">
         <v>328</v>
-      </c>
-      <c r="G253" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="H253" s="43" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="254" spans="1:10" s="42" customFormat="1">
@@ -10871,16 +11008,16 @@
         <v>3</v>
       </c>
       <c r="D254" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F254" s="43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G254" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H254" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="255" spans="1:10" s="42" customFormat="1">
@@ -10894,16 +11031,16 @@
         <v>4</v>
       </c>
       <c r="D255" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F255" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G255" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H255" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="256" spans="1:10" s="42" customFormat="1">
@@ -10917,16 +11054,16 @@
         <v>5</v>
       </c>
       <c r="D256" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F256" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G256" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H256" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="257" spans="1:10" s="42" customFormat="1">
@@ -10940,16 +11077,16 @@
         <v>6</v>
       </c>
       <c r="D257" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F257" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="G257" s="43" t="s">
         <v>331</v>
       </c>
-      <c r="G257" s="43" t="s">
+      <c r="H257" s="43" t="s">
         <v>332</v>
-      </c>
-      <c r="H257" s="43" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="258" spans="1:10" s="42" customFormat="1">
@@ -10963,16 +11100,16 @@
         <v>1</v>
       </c>
       <c r="D258" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F258" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="G258" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F258" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="G258" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H258" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="259" spans="1:10" s="42" customFormat="1">
@@ -10986,16 +11123,16 @@
         <v>2</v>
       </c>
       <c r="D259" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F259" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G259" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H259" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="260" spans="1:10" s="42" customFormat="1">
@@ -11009,16 +11146,16 @@
         <v>3</v>
       </c>
       <c r="D260" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F260" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G260" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F260" s="43" t="s">
-        <v>361</v>
-      </c>
-      <c r="G260" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H260" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="261" spans="1:10" s="42" customFormat="1">
@@ -11032,16 +11169,16 @@
         <v>4</v>
       </c>
       <c r="D261" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F261" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G261" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F261" s="43" t="s">
-        <v>360</v>
-      </c>
-      <c r="G261" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H261" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="262" spans="1:10" s="42" customFormat="1">
@@ -11055,16 +11192,16 @@
         <v>5</v>
       </c>
       <c r="D262" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F262" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G262" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F262" s="43" t="s">
-        <v>359</v>
-      </c>
-      <c r="G262" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H262" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="263" spans="1:10" s="42" customFormat="1">
@@ -11078,459 +11215,831 @@
         <v>6</v>
       </c>
       <c r="D263" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F263" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="G263" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="F263" s="43" t="s">
-        <v>334</v>
-      </c>
-      <c r="G263" s="43" t="s">
-        <v>326</v>
-      </c>
       <c r="H263" s="43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10" s="32" customFormat="1">
-      <c r="A264" s="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" s="7" customFormat="1">
+      <c r="A264" s="7">
         <v>263</v>
       </c>
-      <c r="B264" s="38">
+      <c r="B264" s="19">
         <v>45</v>
       </c>
-      <c r="C264" s="38">
-        <v>1</v>
-      </c>
-      <c r="D264" s="41" t="s">
+      <c r="C264" s="19">
+        <v>1</v>
+      </c>
+      <c r="D264" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="E264" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F264" s="20"/>
+      <c r="G264" s="20"/>
+      <c r="H264" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="J264" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" s="7" customFormat="1">
+      <c r="A265" s="7">
+        <v>264</v>
+      </c>
+      <c r="B265" s="19">
+        <v>45</v>
+      </c>
+      <c r="C265" s="19">
+        <v>2</v>
+      </c>
+      <c r="D265" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E265" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="F265" s="20"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J265" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" s="7" customFormat="1">
+      <c r="A266" s="7">
+        <v>265</v>
+      </c>
+      <c r="B266" s="19">
+        <v>45</v>
+      </c>
+      <c r="C266" s="19">
+        <v>3</v>
+      </c>
+      <c r="D266" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E266" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G266" s="20"/>
+      <c r="H266" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J266" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A267" s="7">
+        <v>266</v>
+      </c>
+      <c r="B267" s="19">
+        <v>45</v>
+      </c>
+      <c r="C267" s="19">
+        <v>4</v>
+      </c>
+      <c r="D267" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E267" s="19"/>
+      <c r="F267" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G267" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H267" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" s="7" customFormat="1">
+      <c r="A268" s="7">
+        <v>267</v>
+      </c>
+      <c r="B268" s="19">
+        <v>45</v>
+      </c>
+      <c r="C268" s="19">
+        <v>5</v>
+      </c>
+      <c r="D268" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E268" s="19"/>
+      <c r="F268" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G268" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H268" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J268" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" s="7" customFormat="1">
+      <c r="A269" s="7">
+        <v>268</v>
+      </c>
+      <c r="B269" s="19">
+        <v>45</v>
+      </c>
+      <c r="C269" s="19">
+        <v>6</v>
+      </c>
+      <c r="D269" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E269" s="19"/>
+      <c r="F269" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G269" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="H269" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="J269" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" s="7" customFormat="1">
+      <c r="A270" s="7">
+        <v>269</v>
+      </c>
+      <c r="B270" s="19">
+        <v>45</v>
+      </c>
+      <c r="C270" s="19">
+        <v>7</v>
+      </c>
+      <c r="D270" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E270" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G270" s="20"/>
+      <c r="H270" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J270" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" s="7" customFormat="1" ht="16.5">
+      <c r="A271" s="7">
+        <v>270</v>
+      </c>
+      <c r="B271" s="19">
+        <v>45</v>
+      </c>
+      <c r="C271" s="19">
+        <v>8</v>
+      </c>
+      <c r="D271" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E271" s="19"/>
+      <c r="F271" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G271" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H271" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="J271" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" s="7" customFormat="1">
+      <c r="A272" s="7">
+        <v>271</v>
+      </c>
+      <c r="B272" s="19">
+        <v>46</v>
+      </c>
+      <c r="C272" s="19">
+        <v>1</v>
+      </c>
+      <c r="D272" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="E264" s="38" t="s">
+      <c r="E272" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F272" s="20"/>
+      <c r="G272" s="20"/>
+      <c r="H272" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="J272" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" s="7" customFormat="1">
+      <c r="A273" s="7">
+        <v>272</v>
+      </c>
+      <c r="B273" s="19">
+        <v>46</v>
+      </c>
+      <c r="C273" s="19">
+        <v>2</v>
+      </c>
+      <c r="D273" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="E273" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="F264" s="39"/>
-      <c r="G264" s="39"/>
-      <c r="H264" s="39" t="s">
+      <c r="F273" s="20"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J273" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" s="7" customFormat="1">
+      <c r="A274" s="7">
+        <v>273</v>
+      </c>
+      <c r="B274" s="19">
+        <v>46</v>
+      </c>
+      <c r="C274" s="19">
+        <v>3</v>
+      </c>
+      <c r="D274" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E274" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="G274" s="20"/>
+      <c r="H274" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="J264" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" s="32" customFormat="1">
-      <c r="A265" s="1">
-        <v>264</v>
-      </c>
-      <c r="B265" s="38">
-        <v>45</v>
-      </c>
-      <c r="C265" s="38">
+      <c r="J274" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" s="7" customFormat="1">
+      <c r="A275" s="7">
+        <v>274</v>
+      </c>
+      <c r="B275" s="19">
+        <v>46</v>
+      </c>
+      <c r="C275" s="19">
+        <v>4</v>
+      </c>
+      <c r="D275" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E275" s="19"/>
+      <c r="F275" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G275" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H275" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" s="7" customFormat="1">
+      <c r="A276" s="7">
+        <v>275</v>
+      </c>
+      <c r="B276" s="19">
+        <v>46</v>
+      </c>
+      <c r="C276" s="19">
+        <v>5</v>
+      </c>
+      <c r="D276" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E276" s="19"/>
+      <c r="F276" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G276" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H276" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J276" s="7">
         <v>2</v>
       </c>
-      <c r="D265" s="38" t="s">
+    </row>
+    <row r="277" spans="1:10" s="7" customFormat="1">
+      <c r="A277" s="7">
+        <v>276</v>
+      </c>
+      <c r="B277" s="19">
+        <v>46</v>
+      </c>
+      <c r="C277" s="19">
+        <v>6</v>
+      </c>
+      <c r="D277" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E277" s="19"/>
+      <c r="F277" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G277" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="H277" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="J277" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" s="7" customFormat="1">
+      <c r="A278" s="7">
+        <v>277</v>
+      </c>
+      <c r="B278" s="19">
+        <v>46</v>
+      </c>
+      <c r="C278" s="19">
+        <v>7</v>
+      </c>
+      <c r="D278" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E278" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="G278" s="20"/>
+      <c r="H278" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J278" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" s="7" customFormat="1">
+      <c r="A279" s="7">
+        <v>278</v>
+      </c>
+      <c r="B279" s="19">
+        <v>46</v>
+      </c>
+      <c r="C279" s="19">
+        <v>8</v>
+      </c>
+      <c r="D279" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E279" s="19"/>
+      <c r="F279" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="G279" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H279" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="J279" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" s="32" customFormat="1">
+      <c r="A280" s="7">
+        <v>279</v>
+      </c>
+      <c r="B280" s="38">
+        <v>47</v>
+      </c>
+      <c r="C280" s="38">
+        <v>1</v>
+      </c>
+      <c r="D280" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E280" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F280" s="39"/>
+      <c r="G280" s="39"/>
+      <c r="H280" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J280" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" s="32" customFormat="1">
+      <c r="A281" s="7">
+        <v>280</v>
+      </c>
+      <c r="B281" s="38">
+        <v>47</v>
+      </c>
+      <c r="C281" s="38">
+        <v>2</v>
+      </c>
+      <c r="D281" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E281" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="F281" s="39"/>
+      <c r="G281" s="39"/>
+      <c r="H281" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J281" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" s="32" customFormat="1">
+      <c r="A282" s="7">
+        <v>281</v>
+      </c>
+      <c r="B282" s="38">
+        <v>47</v>
+      </c>
+      <c r="C282" s="38">
+        <v>3</v>
+      </c>
+      <c r="D282" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E265" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="F265" s="39"/>
-      <c r="G265" s="39"/>
-      <c r="H265" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="J265" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10" s="32" customFormat="1">
-      <c r="A266" s="1">
-        <v>265</v>
-      </c>
-      <c r="B266" s="38">
-        <v>45</v>
-      </c>
-      <c r="C266" s="38">
+      <c r="E282" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="G282" s="39"/>
+      <c r="H282" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="J282" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A283" s="7">
+        <v>282</v>
+      </c>
+      <c r="B283" s="38">
+        <v>47</v>
+      </c>
+      <c r="C283" s="38">
+        <v>4</v>
+      </c>
+      <c r="D283" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E283" s="38"/>
+      <c r="F283" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="G283" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="H283" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="J283" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" s="32" customFormat="1">
+      <c r="A284" s="7">
+        <v>283</v>
+      </c>
+      <c r="B284" s="38">
+        <v>47</v>
+      </c>
+      <c r="C284" s="38">
+        <v>5</v>
+      </c>
+      <c r="D284" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E284" s="38"/>
+      <c r="F284" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G284" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H284" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" s="32" customFormat="1">
+      <c r="A285" s="7">
+        <v>284</v>
+      </c>
+      <c r="B285" s="38">
+        <v>47</v>
+      </c>
+      <c r="C285" s="38">
+        <v>6</v>
+      </c>
+      <c r="D285" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E285" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="F285" s="39"/>
+      <c r="G285" s="39"/>
+      <c r="H285" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J285" s="32">
         <v>3</v>
       </c>
-      <c r="D266" s="38" t="s">
+    </row>
+    <row r="286" spans="1:10" s="32" customFormat="1">
+      <c r="A286" s="7">
+        <v>285</v>
+      </c>
+      <c r="B286" s="38">
+        <v>47</v>
+      </c>
+      <c r="C286" s="38">
+        <v>7</v>
+      </c>
+      <c r="D286" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E266" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="G266" s="39"/>
-      <c r="H266" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="J266" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10" s="32" customFormat="1" ht="16.5">
-      <c r="A267" s="1">
-        <v>266</v>
-      </c>
-      <c r="B267" s="38">
-        <v>45</v>
-      </c>
-      <c r="C267" s="38">
+      <c r="E286" s="38"/>
+      <c r="F286" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="G286" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="H286" s="34" t="s">
+        <v>350</v>
+      </c>
+      <c r="J286" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A287" s="7">
+        <v>286</v>
+      </c>
+      <c r="B287" s="38">
+        <v>47</v>
+      </c>
+      <c r="C287" s="38">
+        <v>8</v>
+      </c>
+      <c r="D287" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="E287" s="38"/>
+      <c r="F287" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="G287" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="H287" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="J287" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" s="32" customFormat="1">
+      <c r="A288" s="7">
+        <v>287</v>
+      </c>
+      <c r="B288" s="38">
+        <v>48</v>
+      </c>
+      <c r="C288" s="38">
+        <v>1</v>
+      </c>
+      <c r="D288" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E288" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="F288" s="39"/>
+      <c r="G288" s="39"/>
+      <c r="H288" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="J288" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" s="32" customFormat="1">
+      <c r="A289" s="7">
+        <v>288</v>
+      </c>
+      <c r="B289" s="38">
+        <v>48</v>
+      </c>
+      <c r="C289" s="38">
+        <v>2</v>
+      </c>
+      <c r="D289" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="E289" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="F289" s="39"/>
+      <c r="G289" s="39"/>
+      <c r="H289" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="J289" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" s="32" customFormat="1">
+      <c r="A290" s="7">
+        <v>289</v>
+      </c>
+      <c r="B290" s="38">
+        <v>48</v>
+      </c>
+      <c r="C290" s="38">
+        <v>3</v>
+      </c>
+      <c r="D290" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E290" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="G290" s="39"/>
+      <c r="H290" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="J290" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A291" s="7">
+        <v>290</v>
+      </c>
+      <c r="B291" s="38">
+        <v>48</v>
+      </c>
+      <c r="C291" s="38">
         <v>4</v>
       </c>
-      <c r="D267" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E267" s="38"/>
-      <c r="F267" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="G267" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="H267" s="39" t="s">
+      <c r="D291" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E291" s="38"/>
+      <c r="F291" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="G291" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="H291" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="J291" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" s="32" customFormat="1">
+      <c r="A292" s="7">
+        <v>291</v>
+      </c>
+      <c r="B292" s="38">
+        <v>48</v>
+      </c>
+      <c r="C292" s="38">
+        <v>5</v>
+      </c>
+      <c r="D292" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E292" s="38"/>
+      <c r="F292" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="G292" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H292" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" s="32" customFormat="1">
+      <c r="A293" s="7">
+        <v>292</v>
+      </c>
+      <c r="B293" s="38">
+        <v>48</v>
+      </c>
+      <c r="C293" s="38">
+        <v>6</v>
+      </c>
+      <c r="D293" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E293" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="F293" s="39"/>
+      <c r="G293" s="39"/>
+      <c r="H293" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J293" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" s="32" customFormat="1">
+      <c r="A294" s="7">
+        <v>293</v>
+      </c>
+      <c r="B294" s="38">
+        <v>48</v>
+      </c>
+      <c r="C294" s="38">
+        <v>7</v>
+      </c>
+      <c r="D294" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E294" s="38"/>
+      <c r="F294" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="G294" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="H294" s="34" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" s="32" customFormat="1">
-      <c r="A268" s="1">
-        <v>267</v>
-      </c>
-      <c r="B268" s="38">
-        <v>45</v>
-      </c>
-      <c r="C268" s="38">
-        <v>5</v>
-      </c>
-      <c r="D268" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E268" s="38"/>
-      <c r="F268" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G268" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="H268" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J268" s="32">
+      <c r="J294" s="32">
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:10" s="32" customFormat="1">
-      <c r="A269" s="1">
-        <v>268</v>
-      </c>
-      <c r="B269" s="38">
-        <v>45</v>
-      </c>
-      <c r="C269" s="38">
-        <v>6</v>
-      </c>
-      <c r="D269" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E269" s="38"/>
-      <c r="F269" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G269" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="H269" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="J269" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" s="32" customFormat="1">
-      <c r="A270" s="1">
-        <v>269</v>
-      </c>
-      <c r="B270" s="38">
-        <v>45</v>
-      </c>
-      <c r="C270" s="38">
-        <v>7</v>
-      </c>
-      <c r="D270" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E270" s="38" t="s">
+    <row r="295" spans="1:10" s="32" customFormat="1" ht="16.5">
+      <c r="A295" s="7">
+        <v>294</v>
+      </c>
+      <c r="B295" s="38">
+        <v>48</v>
+      </c>
+      <c r="C295" s="38">
+        <v>8</v>
+      </c>
+      <c r="D295" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E295" s="38"/>
+      <c r="F295" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="G295" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H295" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="G270" s="39"/>
-      <c r="H270" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J270" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" s="32" customFormat="1" ht="16.5">
-      <c r="A271" s="1">
-        <v>270</v>
-      </c>
-      <c r="B271" s="38">
-        <v>45</v>
-      </c>
-      <c r="C271" s="38">
-        <v>8</v>
-      </c>
-      <c r="D271" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="E271" s="38"/>
-      <c r="F271" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="G271" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H271" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="J271" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" s="32" customFormat="1">
-      <c r="A272" s="1">
-        <v>271</v>
-      </c>
-      <c r="B272" s="38">
-        <v>46</v>
-      </c>
-      <c r="C272" s="38">
-        <v>1</v>
-      </c>
-      <c r="D272" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="E272" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="F272" s="39"/>
-      <c r="G272" s="39"/>
-      <c r="H272" s="39" t="s">
-        <v>344</v>
-      </c>
-      <c r="J272" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" s="32" customFormat="1">
-      <c r="A273" s="1">
-        <v>272</v>
-      </c>
-      <c r="B273" s="38">
-        <v>46</v>
-      </c>
-      <c r="C273" s="38">
-        <v>2</v>
-      </c>
-      <c r="D273" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="E273" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="F273" s="39"/>
-      <c r="G273" s="39"/>
-      <c r="H273" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="J273" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" s="32" customFormat="1">
-      <c r="A274" s="1">
-        <v>273</v>
-      </c>
-      <c r="B274" s="38">
-        <v>46</v>
-      </c>
-      <c r="C274" s="38">
+      <c r="J295" s="32">
         <v>3</v>
       </c>
-      <c r="D274" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E274" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="G274" s="39"/>
-      <c r="H274" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="J274" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" s="32" customFormat="1">
-      <c r="A275" s="1">
-        <v>274</v>
-      </c>
-      <c r="B275" s="38">
-        <v>46</v>
-      </c>
-      <c r="C275" s="38">
-        <v>4</v>
-      </c>
-      <c r="D275" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E275" s="38"/>
-      <c r="F275" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="G275" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="H275" s="39" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" s="32" customFormat="1">
-      <c r="A276" s="1">
-        <v>275</v>
-      </c>
-      <c r="B276" s="38">
-        <v>46</v>
-      </c>
-      <c r="C276" s="38">
-        <v>5</v>
-      </c>
-      <c r="D276" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E276" s="38"/>
-      <c r="F276" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G276" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="H276" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="J276" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" s="32" customFormat="1">
-      <c r="A277" s="1">
-        <v>276</v>
-      </c>
-      <c r="B277" s="38">
-        <v>46</v>
-      </c>
-      <c r="C277" s="38">
-        <v>6</v>
-      </c>
-      <c r="D277" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E277" s="38"/>
-      <c r="F277" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G277" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="H277" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="J277" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" s="32" customFormat="1">
-      <c r="A278" s="1">
-        <v>277</v>
-      </c>
-      <c r="B278" s="38">
-        <v>46</v>
-      </c>
-      <c r="C278" s="38">
-        <v>7</v>
-      </c>
-      <c r="D278" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E278" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="G278" s="39"/>
-      <c r="H278" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J278" s="32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" s="32" customFormat="1">
-      <c r="A279" s="1">
-        <v>278</v>
-      </c>
-      <c r="B279" s="38">
-        <v>46</v>
-      </c>
-      <c r="C279" s="38">
-        <v>8</v>
-      </c>
-      <c r="D279" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E279" s="38"/>
-      <c r="F279" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="G279" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="H279" s="39" t="s">
-        <v>353</v>
-      </c>
-      <c r="J279" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10">
-      <c r="F280" s="15"/>
-      <c r="G280" s="15"/>
-      <c r="H280" s="7"/>
-      <c r="I280" s="7"/>
-    </row>
-    <row r="281" spans="1:10">
-      <c r="F281" s="15"/>
-      <c r="G281" s="20"/>
-      <c r="H281" s="20"/>
-      <c r="I281" s="20"/>
-    </row>
-    <row r="282" spans="1:10">
-      <c r="F282" s="20"/>
-      <c r="G282" s="20"/>
-      <c r="H282" s="20"/>
-      <c r="I282" s="15"/>
-    </row>
-    <row r="283" spans="1:10">
-      <c r="F283" s="15"/>
-      <c r="G283" s="15"/>
-      <c r="H283" s="7"/>
-      <c r="I283" s="15"/>
-    </row>
-    <row r="284" spans="1:10" ht="16.5">
-      <c r="F284" s="22"/>
-      <c r="G284" s="20"/>
-      <c r="H284" s="20"/>
-      <c r="I284" s="15"/>
-    </row>
-    <row r="285" spans="1:10">
-      <c r="F285" s="15"/>
-      <c r="G285" s="15"/>
-      <c r="H285" s="7"/>
-      <c r="I285" s="20"/>
     </row>
   </sheetData>
   <sortState ref="G2:G12">
@@ -11646,7 +12155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -11660,16 +12169,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>364</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11680,7 +12189,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -11694,7 +12203,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>

--- a/config_3.16/activity_exchange_server.xlsx
+++ b/config_3.16/activity_exchange_server.xlsx
@@ -4442,10 +4442,10 @@
   <dimension ref="A1:M295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E269" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K295" sqref="K295"/>
+      <selection pane="bottomRight" activeCell="G274" sqref="G274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="E269" s="19"/>
       <c r="F269" s="20" t="s">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="G269" s="20" t="s">
         <v>347</v>
@@ -11570,7 +11570,7 @@
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="G277" s="20" t="s">
         <v>347</v>

--- a/config_3.16/activity_exchange_server.xlsx
+++ b/config_3.16/activity_exchange_server.xlsx
@@ -1832,9 +1832,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>prop_web_chip_huafei,</t>
-  </si>
-  <si>
     <t>10000,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1864,6 +1861,10 @@
   </si>
   <si>
     <t>"prop_hammer_3",</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_web_chip_huafei",</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2434,8 +2435,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4011,7 +4012,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -4442,10 +4443,10 @@
   <dimension ref="A1:M295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C266" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B266" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G274" sqref="G274"/>
+      <selection pane="bottomRight" activeCell="G294" sqref="G294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11570,7 +11571,7 @@
       </c>
       <c r="E277" s="19"/>
       <c r="F277" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G277" s="20" t="s">
         <v>347</v>
@@ -11621,7 +11622,7 @@
       </c>
       <c r="E279" s="19"/>
       <c r="F279" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G279" s="20" t="s">
         <v>213</v>
@@ -11722,13 +11723,13 @@
       </c>
       <c r="E283" s="38"/>
       <c r="F283" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="G283" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="G283" s="39" t="s">
+      <c r="H283" s="39" t="s">
         <v>380</v>
-      </c>
-      <c r="H283" s="39" t="s">
-        <v>381</v>
       </c>
       <c r="J283" s="32">
         <v>1</v>
@@ -11772,7 +11773,7 @@
         <v>130</v>
       </c>
       <c r="E285" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F285" s="39"/>
       <c r="G285" s="39"/>
@@ -11798,10 +11799,10 @@
       </c>
       <c r="E286" s="38"/>
       <c r="F286" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="G286" s="39" t="s">
         <v>383</v>
-      </c>
-      <c r="G286" s="39" t="s">
-        <v>384</v>
       </c>
       <c r="H286" s="34" t="s">
         <v>350</v>
@@ -11926,13 +11927,13 @@
       </c>
       <c r="E291" s="38"/>
       <c r="F291" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="G291" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="G291" s="39" t="s">
+      <c r="H291" s="39" t="s">
         <v>380</v>
-      </c>
-      <c r="H291" s="39" t="s">
-        <v>381</v>
       </c>
       <c r="J291" s="32">
         <v>1</v>
@@ -11953,7 +11954,7 @@
       </c>
       <c r="E292" s="38"/>
       <c r="F292" s="39" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G292" s="39" t="s">
         <v>62</v>
@@ -11976,7 +11977,7 @@
         <v>131</v>
       </c>
       <c r="E293" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F293" s="39"/>
       <c r="G293" s="39"/>
@@ -12002,10 +12003,10 @@
       </c>
       <c r="E294" s="38"/>
       <c r="F294" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="G294" s="39" t="s">
         <v>383</v>
-      </c>
-      <c r="G294" s="39" t="s">
-        <v>384</v>
       </c>
       <c r="H294" s="34" t="s">
         <v>350</v>
@@ -12029,7 +12030,7 @@
       </c>
       <c r="E295" s="38"/>
       <c r="F295" s="40" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G295" s="39" t="s">
         <v>213</v>
